--- a/teaching/traditional_assets/database/data/netherlands/netherlands_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.22085</v>
+        <v>-0.475</v>
       </c>
       <c r="E2">
-        <v>0.1293</v>
+        <v>-0.133</v>
       </c>
       <c r="G2">
-        <v>0.2169181139822086</v>
+        <v>1.003703703703704</v>
       </c>
       <c r="H2">
-        <v>0.2169181139822086</v>
+        <v>1.003703703703704</v>
       </c>
       <c r="I2">
-        <v>0.2417791510767426</v>
+        <v>0.5900150401356185</v>
       </c>
       <c r="J2">
-        <v>0.2383401642373231</v>
+        <v>0.5810962081335684</v>
       </c>
       <c r="K2">
-        <v>10.702</v>
+        <v>2.54</v>
       </c>
       <c r="L2">
-        <v>0.348724298608622</v>
+        <v>0.4703703703703703</v>
       </c>
       <c r="M2">
-        <v>7.600000000000001</v>
+        <v>3.19437</v>
       </c>
       <c r="N2">
-        <v>0.08695652173913043</v>
+        <v>0.05202557003257329</v>
       </c>
       <c r="O2">
-        <v>0.7101476359558961</v>
+        <v>1.257625984251969</v>
       </c>
       <c r="P2">
-        <v>1.7</v>
+        <v>1.64437</v>
       </c>
       <c r="Q2">
-        <v>0.01945080091533181</v>
+        <v>0.02678127035830619</v>
       </c>
       <c r="R2">
-        <v>0.1588488133059241</v>
+        <v>0.6473897637795276</v>
       </c>
       <c r="S2">
-        <v>5.9</v>
+        <v>1.55</v>
       </c>
       <c r="T2">
-        <v>0.7763157894736842</v>
+        <v>0.4852286992427302</v>
       </c>
       <c r="U2">
-        <v>29.786</v>
+        <v>1.46</v>
       </c>
       <c r="V2">
-        <v>0.3408009153318077</v>
+        <v>0.0237785016286645</v>
       </c>
       <c r="W2">
-        <v>0.06484784889821615</v>
+        <v>0.03227445997458704</v>
       </c>
       <c r="X2">
-        <v>0.05644424283106134</v>
+        <v>0.03625635443668625</v>
       </c>
       <c r="Y2">
-        <v>0.008403606067154817</v>
+        <v>-0.003981894462099213</v>
       </c>
       <c r="Z2">
-        <v>0.2420989888525819</v>
+        <v>0.09420862275963876</v>
       </c>
       <c r="AA2">
-        <v>0.0555801889479251</v>
+        <v>0.05474427345911188</v>
       </c>
       <c r="AB2">
-        <v>0.04756305867421776</v>
+        <v>0.03517703359074804</v>
       </c>
       <c r="AC2">
-        <v>0.008093707857327589</v>
+        <v>0.01956723986836384</v>
       </c>
       <c r="AD2">
-        <v>9.25</v>
+        <v>3.01</v>
       </c>
       <c r="AE2">
-        <v>1.955198163029237</v>
+        <v>0.1795939163383019</v>
       </c>
       <c r="AF2">
-        <v>11.20519816302924</v>
+        <v>3.189593916338302</v>
       </c>
       <c r="AG2">
-        <v>-18.58080183697076</v>
+        <v>1.729593916338302</v>
       </c>
       <c r="AH2">
-        <v>0.1136369924890074</v>
+        <v>0.04938247359891631</v>
       </c>
       <c r="AI2">
-        <v>0.1043847172931897</v>
+        <v>0.03967670143548332</v>
       </c>
       <c r="AJ2">
-        <v>-0.2699944540614055</v>
+        <v>0.02739751373389831</v>
       </c>
       <c r="AK2">
-        <v>-0.2395692874224146</v>
+        <v>0.02191312320916779</v>
       </c>
       <c r="AL2">
-        <v>0.652</v>
+        <v>0.483</v>
       </c>
       <c r="AM2">
-        <v>-3.277</v>
+        <v>0.464</v>
       </c>
       <c r="AN2">
-        <v>1.141693409034806</v>
+        <v>0.9255842558425584</v>
       </c>
       <c r="AO2">
-        <v>10.63957055214724</v>
+        <v>6.418219461697723</v>
       </c>
       <c r="AP2">
-        <v>-2.293359891010955</v>
+        <v>0.531855447828506</v>
       </c>
       <c r="AQ2">
-        <v>-2.116875190723222</v>
+        <v>6.681034482758621</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Navigator Equity Solutions SE (BST:NUQA)</t>
+          <t>Value8 N.V. (ENXTAM:VALUE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,371 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0297</v>
+        <v>-0.475</v>
       </c>
       <c r="E3">
-        <v>0.166</v>
+        <v>-0.133</v>
       </c>
       <c r="G3">
-        <v>0.06073059360730594</v>
+        <v>1.003703703703704</v>
       </c>
       <c r="H3">
-        <v>0.06073059360730594</v>
+        <v>1.003703703703704</v>
       </c>
       <c r="I3">
-        <v>0.05298449426999231</v>
+        <v>0.5900150401356185</v>
       </c>
       <c r="J3">
-        <v>0.05072359239723367</v>
+        <v>0.5810962081335684</v>
       </c>
       <c r="K3">
-        <v>5.52</v>
+        <v>2.54</v>
       </c>
       <c r="L3">
-        <v>0.252054794520548</v>
+        <v>0.4703703703703703</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.19437</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.05202557003257329</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.257625984251969</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>1.64437</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02678127035830619</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.6473897637795276</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.55</v>
+      </c>
+      <c r="T3">
+        <v>0.4852286992427302</v>
       </c>
       <c r="U3">
-        <v>4.27</v>
+        <v>1.46</v>
       </c>
       <c r="V3">
-        <v>0.4891179839633447</v>
+        <v>0.0237785016286645</v>
       </c>
       <c r="W3">
-        <v>0.6723507917174176</v>
+        <v>0.03227445997458704</v>
       </c>
       <c r="X3">
-        <v>0.05644424283106134</v>
+        <v>0.03625635443668625</v>
       </c>
       <c r="Y3">
-        <v>0.6159065488863563</v>
+        <v>-0.003981894462099213</v>
       </c>
       <c r="Z3">
-        <v>2.607702309425287</v>
+        <v>0.09420862275963876</v>
       </c>
       <c r="AA3">
-        <v>0.1322720290366132</v>
+        <v>0.05474427345911188</v>
       </c>
       <c r="AB3">
-        <v>0.04756305867421776</v>
+        <v>0.03517703359074804</v>
       </c>
       <c r="AC3">
-        <v>0.08470897036239544</v>
+        <v>0.01956723986836384</v>
       </c>
       <c r="AD3">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="AE3">
-        <v>1.648197877435843</v>
+        <v>0.1795939163383019</v>
       </c>
       <c r="AF3">
-        <v>3.538197877435843</v>
+        <v>3.189593916338302</v>
       </c>
       <c r="AG3">
-        <v>-0.7318021225641562</v>
+        <v>1.729593916338302</v>
       </c>
       <c r="AH3">
-        <v>0.2884040437547423</v>
+        <v>0.04938247359891631</v>
       </c>
       <c r="AI3">
-        <v>0.1829641986218517</v>
+        <v>0.03967670143548332</v>
       </c>
       <c r="AJ3">
-        <v>-0.09149587616839081</v>
+        <v>0.02739751373389831</v>
       </c>
       <c r="AK3">
-        <v>-0.04856600162253026</v>
+        <v>0.02191312320916779</v>
       </c>
       <c r="AL3">
-        <v>0.281</v>
+        <v>0.483</v>
       </c>
       <c r="AM3">
-        <v>-3.619</v>
+        <v>0.464</v>
       </c>
       <c r="AN3">
-        <v>1.150334753499696</v>
+        <v>0.9255842558425584</v>
       </c>
       <c r="AO3">
-        <v>2.651245551601423</v>
+        <v>6.418219461697723</v>
       </c>
       <c r="AP3">
-        <v>-0.4454060392965041</v>
+        <v>0.531855447828506</v>
       </c>
       <c r="AQ3">
-        <v>-0.2058579718154186</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Value8 N.V. (ENXTAM:VALUE)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.412</v>
-      </c>
-      <c r="E4">
-        <v>0.0926</v>
-      </c>
-      <c r="G4">
-        <v>0.6163594470046083</v>
-      </c>
-      <c r="H4">
-        <v>0.6163594470046083</v>
-      </c>
-      <c r="I4">
-        <v>0.7335944634655901</v>
-      </c>
-      <c r="J4">
-        <v>0.7335944634655901</v>
-      </c>
-      <c r="K4">
-        <v>6.18</v>
-      </c>
-      <c r="L4">
-        <v>0.7119815668202765</v>
-      </c>
-      <c r="M4">
-        <v>7.600000000000001</v>
-      </c>
-      <c r="N4">
-        <v>0.1003963011889036</v>
-      </c>
-      <c r="O4">
-        <v>1.229773462783172</v>
-      </c>
-      <c r="P4">
-        <v>1.7</v>
-      </c>
-      <c r="Q4">
-        <v>0.02245706737120211</v>
-      </c>
-      <c r="R4">
-        <v>0.2750809061488673</v>
-      </c>
-      <c r="S4">
-        <v>5.9</v>
-      </c>
-      <c r="T4">
-        <v>0.7763157894736842</v>
-      </c>
-      <c r="U4">
-        <v>25.5</v>
-      </c>
-      <c r="V4">
-        <v>0.3368560105680317</v>
-      </c>
-      <c r="W4">
-        <v>0.06484784889821615</v>
-      </c>
-      <c r="X4">
-        <v>0.04896403779751023</v>
-      </c>
-      <c r="Y4">
-        <v>0.01588381110070593</v>
-      </c>
-      <c r="Z4">
-        <v>0.07576418813925814</v>
-      </c>
-      <c r="AA4">
-        <v>0.0555801889479251</v>
-      </c>
-      <c r="AB4">
-        <v>0.04748648109059751</v>
-      </c>
-      <c r="AC4">
-        <v>0.008093707857327589</v>
-      </c>
-      <c r="AD4">
-        <v>3.94</v>
-      </c>
-      <c r="AE4">
-        <v>0.3070002855933939</v>
-      </c>
-      <c r="AF4">
-        <v>4.247000285593394</v>
-      </c>
-      <c r="AG4">
-        <v>-21.25299971440661</v>
-      </c>
-      <c r="AH4">
-        <v>0.05312269716714702</v>
-      </c>
-      <c r="AI4">
-        <v>0.05120137281602253</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.3903428949791036</v>
-      </c>
-      <c r="AK4">
-        <v>-0.3699583896243308</v>
-      </c>
-      <c r="AL4">
-        <v>0.278</v>
-      </c>
-      <c r="AM4">
-        <v>0.278</v>
-      </c>
-      <c r="AN4">
-        <v>0.6100015482272798</v>
-      </c>
-      <c r="AO4">
-        <v>22.66187050359712</v>
-      </c>
-      <c r="AP4">
-        <v>-3.290447393467504</v>
-      </c>
-      <c r="AQ4">
-        <v>22.66187050359712</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kids Brands House N.V. (BST:N9VA)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>-0.2110091743119266</v>
-      </c>
-      <c r="H5">
-        <v>-0.2110091743119266</v>
-      </c>
-      <c r="I5">
-        <v>-0.9908256880733944</v>
-      </c>
-      <c r="J5">
-        <v>-0.9908256880733944</v>
-      </c>
-      <c r="K5">
-        <v>-0.998</v>
-      </c>
-      <c r="L5">
-        <v>-9.155963302752294</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.016</v>
-      </c>
-      <c r="V5">
-        <v>0.005387205387205387</v>
-      </c>
-      <c r="W5">
-        <v>-0.4024193548387097</v>
-      </c>
-      <c r="X5">
-        <v>0.07242958685461086</v>
-      </c>
-      <c r="Y5">
-        <v>-0.4748489416933205</v>
-      </c>
-      <c r="Z5">
-        <v>0.02869931542917325</v>
-      </c>
-      <c r="AA5">
-        <v>-0.02843601895734597</v>
-      </c>
-      <c r="AB5">
-        <v>0.07047361079157968</v>
-      </c>
-      <c r="AC5">
-        <v>-0.09890962974892566</v>
-      </c>
-      <c r="AD5">
-        <v>3.42</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>3.42</v>
-      </c>
-      <c r="AG5">
-        <v>3.404</v>
-      </c>
-      <c r="AH5">
-        <v>0.5352112676056338</v>
-      </c>
-      <c r="AI5">
-        <v>0.6758893280632411</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5340445560087856</v>
-      </c>
-      <c r="AK5">
-        <v>0.6748612212529739</v>
-      </c>
-      <c r="AL5">
-        <v>0.093</v>
-      </c>
-      <c r="AM5">
-        <v>0.064</v>
-      </c>
-      <c r="AO5">
-        <v>-1.161290322580645</v>
-      </c>
-      <c r="AQ5">
-        <v>-1.6875</v>
+        <v>6.681034482758621</v>
       </c>
     </row>
   </sheetData>
